--- a/documents/Requisitos_NASH_Planta_MCP_ER_Prop_V1e_.xlsx
+++ b/documents/Requisitos_NASH_Planta_MCP_ER_Prop_V1e_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="MCP_reqs" sheetId="1" r:id="rId1"/>
